--- a/statistics/HistoricalDistanceData/historical_distance/Q5285326-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q5285326-en.xlsx
@@ -31,25 +31,25 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Arab News</t>
+  </si>
+  <si>
     <t>Djibouti incumbent wins one-man poll</t>
   </si>
   <si>
-    <t>Arab News</t>
+    <t>2001-12-19T00:00:00UTC</t>
   </si>
   <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
-    <t>2001-12-19T00:00:00UTC</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>http://www.arabnews.com/?page=1&amp;section=0&amp;article=61839&amp;d=9&amp;m=4&amp;y=2005&amp;pix=kingdom.jpg&amp;category=Kingdom</t>
+  </si>
+  <si>
     <t>http://www.afrol.com/articles/16113</t>
-  </si>
-  <si>
-    <t>http://www.arabnews.com/?page=1&amp;section=0&amp;article=61839&amp;d=9&amp;m=4&amp;y=2005&amp;pix=kingdom.jpg&amp;category=Kingdom</t>
   </si>
 </sst>
 </file>
